--- a/data/trans_orig/BARTHEL_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C14E876-29A4-4FDE-B689-0D2AE66F863C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17B27BB4-36FB-4F2B-9C19-79629CFEBDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6DE14E1E-0353-4D95-B08E-0FD4397D82A8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5A7CB1EE-B692-4344-98DB-AE74295F6ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
   <si>
     <t>Población con dependencia (Barthel) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>90,05%</t>
   </si>
   <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
   </si>
   <si>
     <t>93,88%</t>
@@ -95,10 +95,10 @@
     <t>92,07%</t>
   </si>
   <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,10 +107,10 @@
     <t>9,95%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
   </si>
   <si>
     <t>6,12%</t>
@@ -125,10 +125,10 @@
     <t>7,93%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1798 +140,1780 @@
     <t>95,5%</t>
   </si>
   <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>86,12%</t>
   </si>
   <si>
-    <t>77,42%</t>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Barthel) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Barthel) en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
   </si>
   <si>
     <t>92,29%</t>
   </si>
   <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
   <si>
     <t>7,71%</t>
   </si>
   <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
   </si>
   <si>
     <t>78,1%</t>
   </si>
   <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
   </si>
   <si>
     <t>21,9%</t>
   </si>
   <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
   </si>
   <si>
     <t>73,99%</t>
   </si>
   <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
   </si>
   <si>
     <t>26,01%</t>
   </si>
   <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
   </si>
   <si>
     <t>80,54%</t>
   </si>
   <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
   </si>
   <si>
     <t>19,46%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
   </si>
 </sst>
 </file>
@@ -2343,7 +2325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72F40DE-A7B0-41CF-942A-3C2C3956E9DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9468A3-7487-49A9-99D7-15E5E8237405}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3585,10 +3567,10 @@
         <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3585,13 @@
         <v>14666</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>25</v>
@@ -3618,13 +3600,13 @@
         <v>29268</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
@@ -3633,13 +3615,13 @@
         <v>43934</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3689,13 @@
         <v>462565</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>578</v>
@@ -3722,13 +3704,13 @@
         <v>585747</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1058</v>
@@ -3737,13 +3719,13 @@
         <v>1048312</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3740,13 @@
         <v>39901</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>83</v>
@@ -3773,13 +3755,13 @@
         <v>91095</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>126</v>
@@ -3788,13 +3770,13 @@
         <v>130996</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,7 +3832,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3874,7 +3856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F815CA19-DD72-4354-AA24-7A5B34D37AF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E213EC-EF8C-4EE8-A28F-4328426B4D40}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3891,7 +3873,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3996,39 +3978,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,39 +4023,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,39 +4068,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4117,13 @@
         <v>66301</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>62</v>
@@ -4150,13 +4132,13 @@
         <v>67136</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>122</v>
@@ -4165,13 +4147,13 @@
         <v>133437</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4168,13 @@
         <v>12902</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
@@ -4201,13 +4183,13 @@
         <v>34957</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -4216,13 +4198,13 @@
         <v>47859</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,13 +4272,13 @@
         <v>46475</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>58</v>
@@ -4305,13 +4287,13 @@
         <v>61778</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -4320,13 +4302,13 @@
         <v>108253</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,13 +4323,13 @@
         <v>9267</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -4356,13 +4338,13 @@
         <v>18190</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -4371,13 +4353,13 @@
         <v>27457</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,13 +4427,13 @@
         <v>92738</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -4460,13 +4442,13 @@
         <v>91931</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
         <v>172</v>
@@ -4475,13 +4457,13 @@
         <v>184670</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,13 +4478,13 @@
         <v>15570</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -4511,13 +4493,13 @@
         <v>42537</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>55</v>
@@ -4526,13 +4508,13 @@
         <v>58107</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,13 +4582,13 @@
         <v>24907</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -4615,13 +4597,13 @@
         <v>35260</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>168</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -4630,13 +4612,13 @@
         <v>60167</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,13 +4633,13 @@
         <v>6705</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -4666,13 +4648,13 @@
         <v>14595</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -4681,13 +4663,13 @@
         <v>21300</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +4737,13 @@
         <v>40053</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -4770,13 +4752,13 @@
         <v>51104</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>90</v>
@@ -4785,13 +4767,13 @@
         <v>91157</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +4788,13 @@
         <v>11703</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -4821,13 +4803,13 @@
         <v>19108</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
@@ -4836,13 +4818,13 @@
         <v>30811</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4892,13 @@
         <v>95755</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>185</v>
       </c>
       <c r="H22" s="7">
         <v>102</v>
@@ -4925,13 +4907,13 @@
         <v>111011</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M22" s="7">
         <v>188</v>
@@ -4940,13 +4922,13 @@
         <v>206766</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4943,13 @@
         <v>16508</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>283</v>
+        <v>193</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>27</v>
@@ -4976,13 +4958,13 @@
         <v>30951</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>41</v>
@@ -4991,13 +4973,13 @@
         <v>47460</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5047,13 @@
         <v>109872</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>122</v>
@@ -5080,13 +5062,13 @@
         <v>132305</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>219</v>
@@ -5095,13 +5077,13 @@
         <v>242177</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>299</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5098,13 @@
         <v>10880</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -5131,13 +5113,13 @@
         <v>32112</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="M26" s="7">
         <v>38</v>
@@ -5146,13 +5128,13 @@
         <v>42992</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>307</v>
+        <v>85</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5202,13 @@
         <v>476102</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="H28" s="7">
         <v>518</v>
@@ -5235,13 +5217,13 @@
         <v>550525</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="M28" s="7">
         <v>950</v>
@@ -5250,13 +5232,13 @@
         <v>1026627</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5253,13 @@
         <v>83535</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="H29" s="7">
         <v>176</v>
@@ -5286,13 +5268,13 @@
         <v>192450</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>248</v>
@@ -5301,13 +5283,13 @@
         <v>275985</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,7 +5345,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5387,7 +5369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FDE25A-3486-4690-A4FB-3E30E77901A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A23754A-9FB4-49F8-87F5-475BAF14FB4B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5404,7 +5386,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5511,13 +5493,13 @@
         <v>28964</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -5526,13 +5508,13 @@
         <v>31384</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
@@ -5541,13 +5523,13 @@
         <v>60348</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5544,13 @@
         <v>9932</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -5577,13 +5559,13 @@
         <v>18007</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -5592,13 +5574,13 @@
         <v>27939</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5648,13 @@
         <v>81810</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -5681,13 +5663,13 @@
         <v>89740</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>160</v>
@@ -5696,13 +5678,13 @@
         <v>171550</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>57</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,13 +5699,13 @@
         <v>5485</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -5732,13 +5714,13 @@
         <v>25488</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -5747,13 +5729,13 @@
         <v>30973</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>66</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,13 +5803,13 @@
         <v>58389</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>63</v>
@@ -5836,13 +5818,13 @@
         <v>71720</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>289</v>
       </c>
       <c r="M10" s="7">
         <v>129</v>
@@ -5851,13 +5833,13 @@
         <v>130109</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,13 +5854,13 @@
         <v>5157</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -5887,13 +5869,13 @@
         <v>8177</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>375</v>
+        <v>296</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -5902,13 +5884,13 @@
         <v>13334</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,13 +5958,13 @@
         <v>53747</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -5991,13 +5973,13 @@
         <v>71186</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>120</v>
@@ -6006,13 +5988,13 @@
         <v>124932</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,13 +6009,13 @@
         <v>10965</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -6042,13 +6024,13 @@
         <v>20388</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -6057,13 +6039,13 @@
         <v>31353</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,10 +6113,10 @@
         <v>40467</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -6146,13 +6128,13 @@
         <v>39327</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -6161,13 +6143,13 @@
         <v>79794</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6182,13 +6164,13 @@
         <v>1613</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -6197,13 +6179,13 @@
         <v>11205</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -6212,13 +6194,13 @@
         <v>12818</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,13 +6268,13 @@
         <v>38427</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -6301,13 +6283,13 @@
         <v>45283</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -6316,13 +6298,13 @@
         <v>83709</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,13 +6319,13 @@
         <v>10019</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -6352,13 +6334,13 @@
         <v>22105</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
@@ -6367,13 +6349,13 @@
         <v>32125</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,13 +6423,13 @@
         <v>97487</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>92</v>
@@ -6456,13 +6438,13 @@
         <v>107873</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>186</v>
@@ -6471,13 +6453,13 @@
         <v>205359</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>440</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,13 +6474,13 @@
         <v>14698</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="H23" s="7">
         <v>33</v>
@@ -6507,13 +6489,13 @@
         <v>39752</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="M23" s="7">
         <v>48</v>
@@ -6522,13 +6504,13 @@
         <v>54451</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>448</v>
+        <v>371</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6596,13 +6578,13 @@
         <v>121939</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="H25" s="7">
         <v>124</v>
@@ -6611,13 +6593,13 @@
         <v>152670</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>454</v>
+        <v>108</v>
       </c>
       <c r="M25" s="7">
         <v>253</v>
@@ -6626,13 +6608,13 @@
         <v>274609</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6647,13 +6629,13 @@
         <v>12229</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -6662,13 +6644,13 @@
         <v>23627</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>462</v>
+        <v>117</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -6677,13 +6659,13 @@
         <v>35856</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,13 +6733,13 @@
         <v>521230</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>468</v>
+        <v>374</v>
       </c>
       <c r="H28" s="7">
         <v>522</v>
@@ -6766,13 +6748,13 @@
         <v>609182</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="M28" s="7">
         <v>1072</v>
@@ -6781,13 +6763,13 @@
         <v>1130412</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6784,13 @@
         <v>70098</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>476</v>
+        <v>382</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="H29" s="7">
         <v>133</v>
@@ -6817,13 +6799,13 @@
         <v>168749</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="M29" s="7">
         <v>210</v>
@@ -6832,13 +6814,13 @@
         <v>238847</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,7 +6876,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6918,7 +6900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AFA9CD6-30A2-41B7-B378-FA703AEEA543}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96955A99-D4D4-4281-AEA9-793DA2718414}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6935,7 +6917,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7042,13 +7024,13 @@
         <v>48863</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="H4" s="7">
         <v>117</v>
@@ -7057,13 +7039,13 @@
         <v>53895</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>489</v>
+        <v>308</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="M4" s="7">
         <v>196</v>
@@ -7072,13 +7054,13 @@
         <v>102759</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7093,13 +7075,13 @@
         <v>3057</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -7108,13 +7090,13 @@
         <v>8324</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>499</v>
+        <v>316</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -7123,13 +7105,13 @@
         <v>11380</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,13 +7179,13 @@
         <v>75931</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="H7" s="7">
         <v>162</v>
@@ -7212,13 +7194,13 @@
         <v>101383</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="M7" s="7">
         <v>246</v>
@@ -7227,13 +7209,13 @@
         <v>177313</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>153</v>
+        <v>495</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,13 +7230,13 @@
         <v>10383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="H8" s="7">
         <v>60</v>
@@ -7263,13 +7245,13 @@
         <v>39324</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="M8" s="7">
         <v>71</v>
@@ -7278,13 +7260,13 @@
         <v>49708</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>163</v>
+        <v>504</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,13 +7334,13 @@
         <v>58003</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="H10" s="7">
         <v>121</v>
@@ -7367,13 +7349,13 @@
         <v>67979</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="M10" s="7">
         <v>212</v>
@@ -7382,13 +7364,13 @@
         <v>125982</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>439</v>
+        <v>513</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,13 +7385,13 @@
         <v>19598</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -7418,13 +7400,13 @@
         <v>24682</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="M11" s="7">
         <v>76</v>
@@ -7433,13 +7415,13 @@
         <v>44280</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>449</v>
+        <v>522</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,13 +7489,13 @@
         <v>71332</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>451</v>
+        <v>526</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="H13" s="7">
         <v>205</v>
@@ -7522,13 +7504,13 @@
         <v>88021</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>530</v>
       </c>
       <c r="M13" s="7">
         <v>312</v>
@@ -7537,13 +7519,13 @@
         <v>159353</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>532</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,13 +7540,13 @@
         <v>7473</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>460</v>
+        <v>536</v>
       </c>
       <c r="H14" s="7">
         <v>51</v>
@@ -7573,13 +7555,13 @@
         <v>22434</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>538</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -7588,13 +7570,13 @@
         <v>29907</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7662,13 +7644,13 @@
         <v>31105</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="H16" s="7">
         <v>128</v>
@@ -7677,13 +7659,13 @@
         <v>49585</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>550</v>
       </c>
       <c r="M16" s="7">
         <v>186</v>
@@ -7692,13 +7674,13 @@
         <v>80689</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7713,13 +7695,13 @@
         <v>6659</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>556</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -7728,13 +7710,13 @@
         <v>15133</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>559</v>
       </c>
       <c r="M17" s="7">
         <v>47</v>
@@ -7743,13 +7725,13 @@
         <v>21793</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>560</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,13 +7799,13 @@
         <v>48864</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>565</v>
       </c>
       <c r="H19" s="7">
         <v>114</v>
@@ -7832,13 +7814,13 @@
         <v>46996</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>567</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="M19" s="7">
         <v>217</v>
@@ -7847,13 +7829,13 @@
         <v>95861</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7868,13 +7850,13 @@
         <v>14319</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -7883,13 +7865,13 @@
         <v>22857</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>577</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -7898,13 +7880,13 @@
         <v>37176</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7972,13 +7954,13 @@
         <v>114437</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="H22" s="7">
         <v>182</v>
@@ -7987,13 +7969,13 @@
         <v>221170</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>584</v>
+        <v>189</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="M22" s="7">
         <v>331</v>
@@ -8002,13 +7984,13 @@
         <v>335606</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,13 +8005,13 @@
         <v>15643</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="H23" s="7">
         <v>57</v>
@@ -8038,13 +8020,13 @@
         <v>35844</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>593</v>
+        <v>198</v>
       </c>
       <c r="M23" s="7">
         <v>75</v>
@@ -8053,13 +8035,13 @@
         <v>51488</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8127,13 +8109,13 @@
         <v>154119</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="H25" s="7">
         <v>281</v>
@@ -8142,13 +8124,13 @@
         <v>179556</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>602</v>
+        <v>293</v>
       </c>
       <c r="M25" s="7">
         <v>494</v>
@@ -8157,13 +8139,13 @@
         <v>333675</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8178,13 +8160,13 @@
         <v>15115</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="H26" s="7">
         <v>60</v>
@@ -8193,13 +8175,13 @@
         <v>42309</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>610</v>
+        <v>301</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="M26" s="7">
         <v>81</v>
@@ -8208,13 +8190,13 @@
         <v>57424</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8282,13 +8264,13 @@
         <v>602653</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="H28" s="7">
         <v>1310</v>
@@ -8297,13 +8279,13 @@
         <v>808585</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M28" s="7">
         <v>2194</v>
@@ -8312,13 +8294,13 @@
         <v>1411238</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>351</v>
+        <v>615</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8333,13 +8315,13 @@
         <v>92247</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="H29" s="7">
         <v>386</v>
@@ -8348,13 +8330,13 @@
         <v>210909</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="M29" s="7">
         <v>526</v>
@@ -8363,13 +8345,13 @@
         <v>303156</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>358</v>
+        <v>623</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8425,7 +8407,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/BARTHEL_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R2-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17B27BB4-36FB-4F2B-9C19-79629CFEBDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED90FDFD-BF9D-437D-B9C0-AF44299A9313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5A7CB1EE-B692-4344-98DB-AE74295F6ADA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A320991B-0343-435E-B8BA-02B071155BBB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="621">
   <si>
     <t>Población con dependencia (Barthel) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,16 +77,16 @@
     <t>90,05%</t>
   </si>
   <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
   </si>
   <si>
     <t>93,88%</t>
   </si>
   <si>
-    <t>81,71%</t>
+    <t>80,87%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -95,10 +95,10 @@
     <t>92,07%</t>
   </si>
   <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,10 +107,10 @@
     <t>9,95%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
   </si>
   <si>
     <t>6,12%</t>
@@ -119,16 +119,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>18,29%</t>
+    <t>19,13%</t>
   </si>
   <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,7 +140,7 @@
     <t>95,5%</t>
   </si>
   <si>
-    <t>89,04%</t>
+    <t>87,77%</t>
   </si>
   <si>
     <t>98,55%</t>
@@ -149,19 +149,19 @@
     <t>86,12%</t>
   </si>
   <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
   </si>
   <si>
     <t>89,92%</t>
   </si>
   <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
   </si>
   <si>
     <t>4,5%</t>
@@ -170,25 +170,25 @@
     <t>1,45%</t>
   </si>
   <si>
-    <t>10,96%</t>
+    <t>12,23%</t>
   </si>
   <si>
     <t>13,88%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
   </si>
   <si>
     <t>10,08%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +197,55 @@
     <t>94,24%</t>
   </si>
   <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
   </si>
   <si>
     <t>86,72%</t>
   </si>
   <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
   </si>
   <si>
     <t>89,57%</t>
   </si>
   <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
   </si>
   <si>
     <t>10,43%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,55 +254,55 @@
     <t>95,32%</t>
   </si>
   <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
   </si>
   <si>
     <t>84,31%</t>
   </si>
   <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
   </si>
   <si>
     <t>89,0%</t>
   </si>
   <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
   </si>
   <si>
     <t>15,69%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
   </si>
   <si>
     <t>11,0%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -311,55 +311,55 @@
     <t>82,45%</t>
   </si>
   <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
   </si>
   <si>
     <t>78,96%</t>
   </si>
   <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
   </si>
   <si>
     <t>80,41%</t>
   </si>
   <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
   </si>
   <si>
     <t>17,55%</t>
   </si>
   <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
   </si>
   <si>
     <t>21,04%</t>
   </si>
   <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
   </si>
   <si>
     <t>19,59%</t>
   </si>
   <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -368,55 +368,55 @@
     <t>92,19%</t>
   </si>
   <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
   </si>
   <si>
     <t>86,39%</t>
   </si>
   <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
   </si>
   <si>
     <t>88,72%</t>
   </si>
   <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
   </si>
   <si>
     <t>13,61%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
   </si>
   <si>
     <t>11,28%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -425,55 +425,55 @@
     <t>95,88%</t>
   </si>
   <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>95,86%</t>
   </si>
   <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>95,87%</t>
   </si>
   <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
   </si>
   <si>
     <t>4,14%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
   </si>
   <si>
     <t>4,13%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -482,1287 +482,1287 @@
     <t>86,89%</t>
   </si>
   <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
   </si>
   <si>
     <t>80,9%</t>
   </si>
   <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
   </si>
   <si>
     <t>83,43%</t>
   </si>
   <si>
-    <t>88,05%</t>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
   </si>
   <si>
     <t>19,1%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
   </si>
   <si>
     <t>16,57%</t>
   </si>
   <si>
-    <t>11,95%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
   </si>
   <si>
     <t>92,06%</t>
   </si>
   <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Barthel) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Barthel) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
     <t>89,61%</t>
   </si>
   <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
   </si>
   <si>
     <t>10,39%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
   </si>
   <si>
     <t>60,67%</t>
   </si>
   <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
   </si>
   <si>
     <t>39,33%</t>
   </si>
   <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>64,15%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>52,02%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
     <t>27,94%</t>
   </si>
   <si>
@@ -1778,9 +1778,6 @@
     <t>92,83%</t>
   </si>
   <si>
-    <t>86,05%</t>
-  </si>
-  <si>
     <t>95,62%</t>
   </si>
   <si>
@@ -1799,9 +1796,6 @@
     <t>18,03%</t>
   </si>
   <si>
-    <t>13,95%</t>
-  </si>
-  <si>
     <t>4,38%</t>
   </si>
   <si>
@@ -1883,9 +1877,6 @@
     <t>82,32%</t>
   </si>
   <si>
-    <t>80,54%</t>
-  </si>
-  <si>
     <t>86,06%</t>
   </si>
   <si>
@@ -1911,9 +1902,6 @@
   </si>
   <si>
     <t>13,94%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
   </si>
 </sst>
 </file>
@@ -2325,7 +2313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9468A3-7487-49A9-99D7-15E5E8237405}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CEF9C8-08BC-411B-A1F5-D20479CE90E3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3567,10 +3555,10 @@
         <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3573,13 @@
         <v>14666</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>25</v>
@@ -3600,13 +3588,13 @@
         <v>29268</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
@@ -3615,13 +3603,13 @@
         <v>43934</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3689,13 +3677,13 @@
         <v>462565</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>578</v>
@@ -3704,13 +3692,13 @@
         <v>585747</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1058</v>
@@ -3719,13 +3707,13 @@
         <v>1048312</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,13 +3728,13 @@
         <v>39901</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>83</v>
@@ -3755,13 +3743,13 @@
         <v>91095</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>126</v>
@@ -3770,13 +3758,13 @@
         <v>130996</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,7 +3820,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3856,7 +3844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E213EC-EF8C-4EE8-A28F-4328426B4D40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D592DAF8-E950-4396-868F-C11640FF1C7F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3873,7 +3861,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3978,39 +3966,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,39 +4011,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,39 +4056,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4105,13 @@
         <v>66301</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>62</v>
@@ -4132,13 +4120,13 @@
         <v>67136</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>122</v>
@@ -4147,13 +4135,13 @@
         <v>133437</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4156,13 @@
         <v>12902</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>31</v>
@@ -4183,13 +4171,13 @@
         <v>34957</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>40</v>
@@ -4198,13 +4186,13 @@
         <v>47859</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,13 +4260,13 @@
         <v>46475</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>58</v>
@@ -4287,13 +4275,13 @@
         <v>61778</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>103</v>
@@ -4302,13 +4290,13 @@
         <v>108253</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4323,13 +4311,13 @@
         <v>9267</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -4338,13 +4326,13 @@
         <v>18190</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -4353,13 +4341,13 @@
         <v>27457</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4415,13 @@
         <v>92738</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -4442,13 +4430,13 @@
         <v>91931</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>172</v>
@@ -4457,13 +4445,13 @@
         <v>184670</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4466,13 @@
         <v>15570</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -4493,13 +4481,13 @@
         <v>42537</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>55</v>
@@ -4508,13 +4496,13 @@
         <v>58107</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,13 +4570,13 @@
         <v>24907</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -4597,13 +4585,13 @@
         <v>35260</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -4612,13 +4600,13 @@
         <v>60167</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4633,13 +4621,13 @@
         <v>6705</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -4648,13 +4636,13 @@
         <v>14595</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -4663,13 +4651,13 @@
         <v>21300</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4725,13 @@
         <v>40053</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -4752,13 +4740,13 @@
         <v>51104</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>90</v>
@@ -4767,13 +4755,13 @@
         <v>91157</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4776,13 @@
         <v>11703</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -4803,13 +4791,13 @@
         <v>19108</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
@@ -4818,13 +4806,13 @@
         <v>30811</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4892,13 +4880,13 @@
         <v>95755</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>185</v>
+        <v>277</v>
       </c>
       <c r="H22" s="7">
         <v>102</v>
@@ -4907,13 +4895,13 @@
         <v>111011</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>274</v>
+        <v>186</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M22" s="7">
         <v>188</v>
@@ -4922,13 +4910,13 @@
         <v>206766</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,13 +4931,13 @@
         <v>16508</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>193</v>
+        <v>284</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="H23" s="7">
         <v>27</v>
@@ -4958,13 +4946,13 @@
         <v>30951</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>196</v>
       </c>
       <c r="M23" s="7">
         <v>41</v>
@@ -4973,13 +4961,13 @@
         <v>47460</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5035,13 @@
         <v>109872</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>122</v>
@@ -5062,13 +5050,13 @@
         <v>132305</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M25" s="7">
         <v>219</v>
@@ -5077,13 +5065,13 @@
         <v>242177</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>76</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5086,13 @@
         <v>10880</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -5113,13 +5101,13 @@
         <v>32112</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M26" s="7">
         <v>38</v>
@@ -5128,13 +5116,13 @@
         <v>42992</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>85</v>
+        <v>307</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5190,13 @@
         <v>476102</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="H28" s="7">
         <v>518</v>
@@ -5217,13 +5205,13 @@
         <v>550525</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="M28" s="7">
         <v>950</v>
@@ -5232,13 +5220,13 @@
         <v>1026627</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5241,13 @@
         <v>83535</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="H29" s="7">
         <v>176</v>
@@ -5268,13 +5256,13 @@
         <v>192450</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="M29" s="7">
         <v>248</v>
@@ -5283,13 +5271,13 @@
         <v>275985</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,7 +5333,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5369,7 +5357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A23754A-9FB4-49F8-87F5-475BAF14FB4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3EB20B-38C5-4AFC-9659-BCA3FC79F3F9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5386,7 +5374,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5493,13 +5481,13 @@
         <v>28964</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -5508,28 +5496,28 @@
         <v>31384</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
       </c>
       <c r="N4" s="7">
-        <v>60348</v>
+        <v>60347</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,13 +5532,13 @@
         <v>9932</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -5559,13 +5547,13 @@
         <v>18007</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -5574,13 +5562,13 @@
         <v>27939</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,7 +5610,7 @@
         <v>85</v>
       </c>
       <c r="N6" s="7">
-        <v>88287</v>
+        <v>88286</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5648,13 +5636,13 @@
         <v>81810</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="H7" s="7">
         <v>76</v>
@@ -5663,13 +5651,13 @@
         <v>89740</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="M7" s="7">
         <v>160</v>
@@ -5678,13 +5666,13 @@
         <v>171550</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5687,13 @@
         <v>5485</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -5714,13 +5702,13 @@
         <v>25488</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -5729,13 +5717,13 @@
         <v>30973</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5791,13 @@
         <v>58389</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>91</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="H10" s="7">
         <v>63</v>
@@ -5818,13 +5806,13 @@
         <v>71720</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>289</v>
+        <v>133</v>
       </c>
       <c r="M10" s="7">
         <v>129</v>
@@ -5833,13 +5821,13 @@
         <v>130109</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5842,13 @@
         <v>5157</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>364</v>
+        <v>99</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -5869,13 +5857,13 @@
         <v>8177</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>296</v>
+        <v>142</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -5884,13 +5872,13 @@
         <v>13334</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,13 +5946,13 @@
         <v>53747</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -5973,13 +5961,13 @@
         <v>71186</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M13" s="7">
         <v>120</v>
@@ -5988,13 +5976,13 @@
         <v>124932</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +5997,13 @@
         <v>10965</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -6024,13 +6012,13 @@
         <v>20388</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -6039,13 +6027,13 @@
         <v>31353</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,10 +6101,10 @@
         <v>40467</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -6128,13 +6116,13 @@
         <v>39327</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -6143,13 +6131,13 @@
         <v>79794</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6152,13 @@
         <v>1613</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -6179,13 +6167,13 @@
         <v>11205</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -6194,13 +6182,13 @@
         <v>12818</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6268,13 +6256,13 @@
         <v>38427</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -6283,13 +6271,13 @@
         <v>45283</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -6298,13 +6286,13 @@
         <v>83709</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6307,13 @@
         <v>10019</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -6334,13 +6322,13 @@
         <v>22105</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
@@ -6349,13 +6337,13 @@
         <v>32125</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,13 +6411,13 @@
         <v>97487</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="H22" s="7">
         <v>92</v>
@@ -6438,13 +6426,13 @@
         <v>107873</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M22" s="7">
         <v>186</v>
@@ -6453,13 +6441,13 @@
         <v>205359</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>362</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6474,13 +6462,13 @@
         <v>14698</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="H23" s="7">
         <v>33</v>
@@ -6489,13 +6477,13 @@
         <v>39752</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="M23" s="7">
         <v>48</v>
@@ -6504,13 +6492,13 @@
         <v>54451</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>371</v>
+        <v>444</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,13 +6566,13 @@
         <v>121939</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="H25" s="7">
         <v>124</v>
@@ -6593,13 +6581,13 @@
         <v>152670</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>108</v>
+        <v>451</v>
       </c>
       <c r="M25" s="7">
         <v>253</v>
@@ -6608,13 +6596,13 @@
         <v>274609</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,13 +6617,13 @@
         <v>12229</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -6644,13 +6632,13 @@
         <v>23627</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>117</v>
+        <v>459</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -6659,13 +6647,13 @@
         <v>35856</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6721,13 @@
         <v>521230</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>374</v>
+        <v>466</v>
       </c>
       <c r="H28" s="7">
         <v>522</v>
@@ -6748,13 +6736,13 @@
         <v>609182</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="M28" s="7">
         <v>1072</v>
@@ -6763,13 +6751,13 @@
         <v>1130412</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>462</v>
+        <v>298</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6772,13 @@
         <v>70098</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>382</v>
+        <v>473</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="H29" s="7">
         <v>133</v>
@@ -6799,13 +6787,13 @@
         <v>168749</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="M29" s="7">
         <v>210</v>
@@ -6814,13 +6802,13 @@
         <v>238847</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>471</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6876,7 +6864,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6900,7 +6888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96955A99-D4D4-4281-AEA9-793DA2718414}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8884D1-8E16-4EAD-841B-9A6C1D65282F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6917,7 +6905,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7024,13 +7012,13 @@
         <v>48863</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>475</v>
+        <v>132</v>
       </c>
       <c r="H4" s="7">
         <v>117</v>
@@ -7039,13 +7027,13 @@
         <v>53895</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="M4" s="7">
         <v>196</v>
@@ -7054,13 +7042,13 @@
         <v>102759</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7075,13 +7063,13 @@
         <v>3057</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>482</v>
+        <v>140</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -7090,13 +7078,13 @@
         <v>8324</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -7105,13 +7093,13 @@
         <v>11380</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7179,13 +7167,13 @@
         <v>75931</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>491</v>
+        <v>113</v>
       </c>
       <c r="H7" s="7">
         <v>162</v>
@@ -7194,13 +7182,13 @@
         <v>101383</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="M7" s="7">
         <v>246</v>
@@ -7209,13 +7197,13 @@
         <v>177313</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>495</v>
+        <v>55</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7230,13 +7218,13 @@
         <v>10383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>499</v>
+        <v>121</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="H8" s="7">
         <v>60</v>
@@ -7245,13 +7233,13 @@
         <v>39324</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="M8" s="7">
         <v>71</v>
@@ -7260,13 +7248,13 @@
         <v>49708</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>504</v>
+        <v>65</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7334,13 +7322,13 @@
         <v>58003</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H10" s="7">
         <v>121</v>
@@ -7349,13 +7337,13 @@
         <v>67979</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M10" s="7">
         <v>212</v>
@@ -7364,13 +7352,13 @@
         <v>125982</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7385,13 +7373,13 @@
         <v>19598</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -7400,13 +7388,13 @@
         <v>24682</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M11" s="7">
         <v>76</v>
@@ -7415,13 +7403,13 @@
         <v>44280</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7489,13 +7477,13 @@
         <v>71332</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="H13" s="7">
         <v>205</v>
@@ -7504,13 +7492,13 @@
         <v>88021</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>530</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>312</v>
@@ -7519,13 +7507,13 @@
         <v>159353</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7540,13 +7528,13 @@
         <v>7473</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H14" s="7">
         <v>51</v>
@@ -7555,10 +7543,10 @@
         <v>22434</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>538</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>539</v>
@@ -7659,13 +7647,13 @@
         <v>49585</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>548</v>
       </c>
       <c r="M16" s="7">
         <v>186</v>
@@ -7674,13 +7662,13 @@
         <v>80689</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7695,13 +7683,13 @@
         <v>6659</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>552</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>554</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -7710,13 +7698,13 @@
         <v>15133</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="M17" s="7">
         <v>47</v>
@@ -7725,13 +7713,13 @@
         <v>21793</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7799,13 +7787,13 @@
         <v>48864</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="H19" s="7">
         <v>114</v>
@@ -7814,13 +7802,13 @@
         <v>46996</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>565</v>
       </c>
       <c r="M19" s="7">
         <v>217</v>
@@ -7829,13 +7817,13 @@
         <v>95861</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7850,13 +7838,13 @@
         <v>14319</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>571</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -7865,13 +7853,13 @@
         <v>22857</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -7954,7 +7942,7 @@
         <v>114437</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>577</v>
@@ -7969,13 +7957,13 @@
         <v>221170</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="M22" s="7">
         <v>331</v>
@@ -7984,13 +7972,13 @@
         <v>335606</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8005,13 +7993,13 @@
         <v>15643</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>585</v>
       </c>
       <c r="H23" s="7">
         <v>57</v>
@@ -8020,13 +8008,13 @@
         <v>35844</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>586</v>
+        <v>289</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M23" s="7">
         <v>75</v>
@@ -8035,13 +8023,13 @@
         <v>51488</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8109,13 +8097,13 @@
         <v>154119</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>591</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>592</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>593</v>
       </c>
       <c r="H25" s="7">
         <v>281</v>
@@ -8124,13 +8112,13 @@
         <v>179556</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M25" s="7">
         <v>494</v>
@@ -8139,13 +8127,13 @@
         <v>333675</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8160,13 +8148,13 @@
         <v>15115</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>601</v>
       </c>
       <c r="H26" s="7">
         <v>60</v>
@@ -8175,13 +8163,13 @@
         <v>42309</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="M26" s="7">
         <v>81</v>
@@ -8190,13 +8178,13 @@
         <v>57424</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>604</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>605</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8264,13 +8252,13 @@
         <v>602653</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>607</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>609</v>
       </c>
       <c r="H28" s="7">
         <v>1310</v>
@@ -8279,13 +8267,13 @@
         <v>808585</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="M28" s="7">
         <v>2194</v>
@@ -8294,13 +8282,13 @@
         <v>1411238</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>614</v>
+        <v>418</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8315,13 +8303,13 @@
         <v>92247</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H29" s="7">
         <v>386</v>
@@ -8330,13 +8318,13 @@
         <v>210909</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="M29" s="7">
         <v>526</v>
@@ -8345,13 +8333,13 @@
         <v>303156</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>624</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8407,7 +8395,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/BARTHEL_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED90FDFD-BF9D-437D-B9C0-AF44299A9313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77B921D8-90F4-4550-8D7B-563E919C0263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A320991B-0343-435E-B8BA-02B071155BBB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{36516D1A-683A-46E8-9705-4C6322271555}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="621">
-  <si>
-    <t>Población con dependencia (Barthel) en 2007 (Tasa respuesta: 18,18%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="631">
+  <si>
+    <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,16 +77,16 @@
     <t>90,05%</t>
   </si>
   <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
   <si>
     <t>93,88%</t>
   </si>
   <si>
-    <t>80,87%</t>
+    <t>81,71%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -95,10 +95,10 @@
     <t>92,07%</t>
   </si>
   <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,10 +107,10 @@
     <t>9,95%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
   </si>
   <si>
     <t>6,12%</t>
@@ -119,16 +119,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>19,13%</t>
+    <t>18,29%</t>
   </si>
   <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,16 +140,16 @@
     <t>95,5%</t>
   </si>
   <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
   </si>
   <si>
     <t>86,12%</t>
   </si>
   <si>
-    <t>77,47%</t>
+    <t>77,42%</t>
   </si>
   <si>
     <t>92,29%</t>
@@ -158,19 +158,19 @@
     <t>89,92%</t>
   </si>
   <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
   <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
   </si>
   <si>
     <t>13,88%</t>
@@ -179,16 +179,16 @@
     <t>7,71%</t>
   </si>
   <si>
-    <t>22,53%</t>
+    <t>22,58%</t>
   </si>
   <si>
     <t>10,08%</t>
   </si>
   <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,1711 +197,1741 @@
     <t>94,24%</t>
   </si>
   <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
   </si>
   <si>
     <t>86,72%</t>
   </si>
   <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
     <t>78,1%</t>
   </si>
   <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
   </si>
   <si>
     <t>94,29%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
   </si>
   <si>
     <t>5,71%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>78,96%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
+    <t>13,16%</t>
   </si>
   <si>
     <t>19,07%</t>
   </si>
   <si>
-    <t>24,08%</t>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
   </si>
   <si>
     <t>86,73%</t>
   </si>
   <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
   </si>
   <si>
     <t>79,31%</t>
   </si>
   <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
   </si>
   <si>
     <t>82,32%</t>
   </si>
   <si>
-    <t>86,06%</t>
+    <t>80,5%</t>
   </si>
   <si>
     <t>13,27%</t>
   </si>
   <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
   </si>
   <si>
     <t>20,69%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
   </si>
   <si>
     <t>17,68%</t>
   </si>
   <si>
-    <t>13,94%</t>
+    <t>19,5%</t>
   </si>
 </sst>
 </file>
@@ -2313,7 +2343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CEF9C8-08BC-411B-A1F5-D20479CE90E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD9E897-6245-4F3B-BA41-C9CBF87C5344}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3844,7 +3874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D592DAF8-E950-4396-868F-C11640FF1C7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7DD785-8E1D-4E31-B3F5-12F3D8BEA786}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4591,7 +4621,7 @@
         <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>168</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -4600,13 +4630,13 @@
         <v>60167</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,13 +4651,13 @@
         <v>6705</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -4636,13 +4666,13 @@
         <v>14595</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -4651,13 +4681,13 @@
         <v>21300</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4755,13 @@
         <v>40053</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -4740,13 +4770,13 @@
         <v>51104</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>90</v>
@@ -4755,13 +4785,13 @@
         <v>91157</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4806,13 @@
         <v>11703</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -4791,13 +4821,13 @@
         <v>19108</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
@@ -4806,13 +4836,13 @@
         <v>30811</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4910,13 @@
         <v>95755</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H22" s="7">
         <v>102</v>
@@ -4895,13 +4925,13 @@
         <v>111011</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M22" s="7">
         <v>188</v>
@@ -4910,13 +4940,13 @@
         <v>206766</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4961,13 @@
         <v>16508</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H23" s="7">
         <v>27</v>
@@ -4946,13 +4976,13 @@
         <v>30951</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M23" s="7">
         <v>41</v>
@@ -5357,7 +5387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3EB20B-38C5-4AFC-9659-BCA3FC79F3F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7572F3DA-8660-4D6B-A4AD-3ED7C379F70D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5508,7 +5538,7 @@
         <v>58</v>
       </c>
       <c r="N4" s="7">
-        <v>60347</v>
+        <v>60348</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>334</v>
@@ -5610,7 +5640,7 @@
         <v>85</v>
       </c>
       <c r="N6" s="7">
-        <v>88286</v>
+        <v>88287</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5669,10 +5699,10 @@
         <v>352</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>92</v>
+        <v>353</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>353</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5720,10 +5750,10 @@
         <v>360</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5821,13 @@
         <v>58389</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>91</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>63</v>
@@ -5806,13 +5836,13 @@
         <v>71720</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>133</v>
+        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>129</v>
@@ -5821,13 +5851,13 @@
         <v>130109</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5872,13 @@
         <v>5157</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>99</v>
+        <v>371</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -5857,13 +5887,13 @@
         <v>8177</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>142</v>
+        <v>375</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="M11" s="7">
         <v>12</v>
@@ -5872,13 +5902,13 @@
         <v>13334</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,13 +5976,13 @@
         <v>53747</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H13" s="7">
         <v>61</v>
@@ -5961,13 +5991,13 @@
         <v>71186</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M13" s="7">
         <v>120</v>
@@ -5976,13 +6006,13 @@
         <v>124932</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +6027,13 @@
         <v>10965</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -6012,13 +6042,13 @@
         <v>20388</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -6027,13 +6057,13 @@
         <v>31353</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,10 +6131,10 @@
         <v>40467</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -6116,13 +6146,13 @@
         <v>39327</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -6131,13 +6161,13 @@
         <v>79794</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,13 +6182,13 @@
         <v>1613</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -6167,13 +6197,13 @@
         <v>11205</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -6182,13 +6212,13 @@
         <v>12818</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6286,13 @@
         <v>38427</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H19" s="7">
         <v>42</v>
@@ -6271,13 +6301,13 @@
         <v>45283</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -6286,13 +6316,13 @@
         <v>83709</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6337,13 @@
         <v>10019</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="H20" s="7">
         <v>17</v>
@@ -6322,13 +6352,13 @@
         <v>22105</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="M20" s="7">
         <v>29</v>
@@ -6337,13 +6367,13 @@
         <v>32125</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,13 +6441,13 @@
         <v>97487</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="H22" s="7">
         <v>92</v>
@@ -6426,13 +6456,13 @@
         <v>107873</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="M22" s="7">
         <v>186</v>
@@ -6441,13 +6471,13 @@
         <v>205359</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,13 +6492,13 @@
         <v>14698</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="H23" s="7">
         <v>33</v>
@@ -6477,13 +6507,13 @@
         <v>39752</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="M23" s="7">
         <v>48</v>
@@ -6492,13 +6522,13 @@
         <v>54451</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6566,13 +6596,13 @@
         <v>121939</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H25" s="7">
         <v>124</v>
@@ -6581,13 +6611,13 @@
         <v>152670</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="M25" s="7">
         <v>253</v>
@@ -6596,13 +6626,13 @@
         <v>274609</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,13 +6647,13 @@
         <v>12229</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -6632,13 +6662,13 @@
         <v>23627</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="M26" s="7">
         <v>30</v>
@@ -6647,13 +6677,13 @@
         <v>35856</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,13 +6751,13 @@
         <v>521230</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="H28" s="7">
         <v>522</v>
@@ -6736,13 +6766,13 @@
         <v>609182</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="M28" s="7">
         <v>1072</v>
@@ -6751,13 +6781,13 @@
         <v>1130412</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>298</v>
+        <v>473</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6772,13 +6802,13 @@
         <v>70098</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="H29" s="7">
         <v>133</v>
@@ -6787,13 +6817,13 @@
         <v>168749</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M29" s="7">
         <v>210</v>
@@ -6802,13 +6832,13 @@
         <v>238847</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>308</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,7 +6918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8884D1-8E16-4EAD-841B-9A6C1D65282F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D39C18-2D79-4B81-BA84-2BE1B8819D54}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6905,7 +6935,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7012,13 +7042,13 @@
         <v>48863</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>132</v>
+        <v>487</v>
       </c>
       <c r="H4" s="7">
         <v>117</v>
@@ -7027,13 +7057,13 @@
         <v>53895</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>315</v>
+        <v>489</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="M4" s="7">
         <v>196</v>
@@ -7042,13 +7072,13 @@
         <v>102759</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,13 +7093,13 @@
         <v>3057</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>140</v>
+        <v>495</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -7078,13 +7108,13 @@
         <v>8324</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>324</v>
+        <v>499</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -7093,13 +7123,13 @@
         <v>11380</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,13 +7197,13 @@
         <v>75931</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>113</v>
+        <v>505</v>
       </c>
       <c r="H7" s="7">
         <v>162</v>
@@ -7182,13 +7212,13 @@
         <v>101383</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="M7" s="7">
         <v>246</v>
@@ -7197,13 +7227,13 @@
         <v>177313</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,13 +7248,13 @@
         <v>10383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>121</v>
+        <v>512</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="H8" s="7">
         <v>60</v>
@@ -7233,13 +7263,13 @@
         <v>39324</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="M8" s="7">
         <v>71</v>
@@ -7248,13 +7278,13 @@
         <v>49708</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,13 +7352,13 @@
         <v>58003</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="H10" s="7">
         <v>121</v>
@@ -7337,13 +7367,13 @@
         <v>67979</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="M10" s="7">
         <v>212</v>
@@ -7352,13 +7382,13 @@
         <v>125982</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>515</v>
+        <v>439</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,13 +7403,13 @@
         <v>19598</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -7388,13 +7418,13 @@
         <v>24682</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="M11" s="7">
         <v>76</v>
@@ -7403,13 +7433,13 @@
         <v>44280</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>524</v>
+        <v>449</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7477,13 +7507,13 @@
         <v>71332</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>528</v>
+        <v>451</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="H13" s="7">
         <v>205</v>
@@ -7492,13 +7522,13 @@
         <v>88021</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>312</v>
@@ -7507,13 +7537,13 @@
         <v>159353</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>533</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,13 +7558,13 @@
         <v>7473</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>537</v>
+        <v>460</v>
       </c>
       <c r="H14" s="7">
         <v>51</v>
@@ -7543,13 +7573,13 @@
         <v>22434</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="M14" s="7">
         <v>62</v>
@@ -7558,13 +7588,13 @@
         <v>29907</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>542</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7632,13 +7662,13 @@
         <v>31105</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H16" s="7">
         <v>128</v>
@@ -7647,13 +7677,13 @@
         <v>49585</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>276</v>
+        <v>548</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="M16" s="7">
         <v>186</v>
@@ -7662,13 +7692,13 @@
         <v>80689</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7683,13 +7713,13 @@
         <v>6659</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -7698,13 +7728,13 @@
         <v>15133</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>285</v>
+        <v>557</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="M17" s="7">
         <v>47</v>
@@ -7713,13 +7743,13 @@
         <v>21793</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,13 +7817,13 @@
         <v>48864</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="H19" s="7">
         <v>114</v>
@@ -7802,13 +7832,13 @@
         <v>46996</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="M19" s="7">
         <v>217</v>
@@ -7817,13 +7847,13 @@
         <v>95861</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,13 +7868,13 @@
         <v>14319</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -7853,13 +7883,13 @@
         <v>22857</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="M20" s="7">
         <v>95</v>
@@ -7868,13 +7898,13 @@
         <v>37176</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,13 +7972,13 @@
         <v>114437</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="H22" s="7">
         <v>182</v>
@@ -7957,13 +7987,13 @@
         <v>221170</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>282</v>
+        <v>583</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>191</v>
+        <v>584</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="M22" s="7">
         <v>331</v>
@@ -7972,13 +8002,13 @@
         <v>335606</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7993,13 +8023,13 @@
         <v>15643</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="H23" s="7">
         <v>57</v>
@@ -8008,13 +8038,13 @@
         <v>35844</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>289</v>
+        <v>591</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>200</v>
+        <v>593</v>
       </c>
       <c r="M23" s="7">
         <v>75</v>
@@ -8023,13 +8053,13 @@
         <v>51488</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,13 +8127,13 @@
         <v>154119</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="H25" s="7">
         <v>281</v>
@@ -8112,13 +8142,13 @@
         <v>179556</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>297</v>
+        <v>602</v>
       </c>
       <c r="M25" s="7">
         <v>494</v>
@@ -8127,13 +8157,13 @@
         <v>333675</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,13 +8178,13 @@
         <v>15115</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="H26" s="7">
         <v>60</v>
@@ -8163,13 +8193,13 @@
         <v>42309</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>306</v>
+        <v>610</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="M26" s="7">
         <v>81</v>
@@ -8178,13 +8208,13 @@
         <v>57424</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8252,13 +8282,13 @@
         <v>602653</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="H28" s="7">
         <v>1310</v>
@@ -8267,13 +8297,13 @@
         <v>808585</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="M28" s="7">
         <v>2194</v>
@@ -8282,13 +8312,13 @@
         <v>1411238</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>418</v>
+        <v>622</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>612</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,13 +8333,13 @@
         <v>92247</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="H29" s="7">
         <v>386</v>
@@ -8318,13 +8348,13 @@
         <v>210909</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="M29" s="7">
         <v>526</v>
@@ -8333,13 +8363,13 @@
         <v>303156</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>620</v>
+        <v>358</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>426</v>
+        <v>630</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/BARTHEL_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/BARTHEL_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77B921D8-90F4-4550-8D7B-563E919C0263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B031EBD-9D77-46D7-8841-8B4B5BB74368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{36516D1A-683A-46E8-9705-4C6322271555}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4E4E5B94-2BDF-458A-8C31-EFF0A1C38090}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="638">
   <si>
     <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -74,6 +74,36 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>90,05%</t>
   </si>
   <si>
@@ -101,42 +131,39 @@
     <t>96,57%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
     <t>Cadiz</t>
   </si>
   <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
     <t>95,5%</t>
   </si>
   <si>
@@ -164,36 +191,36 @@
     <t>93,93%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
     <t>94,24%</t>
   </si>
   <si>
@@ -221,36 +248,36 @@
     <t>93,96%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
     <t>Granada</t>
   </si>
   <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
     <t>95,32%</t>
   </si>
   <si>
@@ -278,36 +305,36 @@
     <t>93,74%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
     <t>Huelva</t>
   </si>
   <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
     <t>82,45%</t>
   </si>
   <si>
@@ -335,36 +362,36 @@
     <t>88,8%</t>
   </si>
   <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
     <t>Jaen</t>
   </si>
   <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
     <t>92,19%</t>
   </si>
   <si>
@@ -392,36 +419,36 @@
     <t>93,66%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
     <t>Malaga</t>
   </si>
   <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
     <t>95,88%</t>
   </si>
   <si>
@@ -449,36 +476,36 @@
     <t>98,02%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
     <t>Sevilla</t>
   </si>
   <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
     <t>86,89%</t>
   </si>
   <si>
@@ -506,31 +533,31 @@
     <t>87,7%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
   </si>
   <si>
     <t>92,06%</t>
@@ -560,40 +587,91 @@
     <t>90,64%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
   </si>
   <si>
     <t>83,71%</t>
@@ -623,31 +701,31 @@
     <t>79,86%</t>
   </si>
   <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
   </si>
   <si>
     <t>83,38%</t>
@@ -677,85 +755,82 @@
     <t>85,75%</t>
   </si>
   <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
   </si>
   <si>
     <t>78,79%</t>
@@ -782,28 +857,31 @@
     <t>82,87%</t>
   </si>
   <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
   </si>
   <si>
     <t>77,39%</t>
@@ -833,31 +911,28 @@
     <t>82,16%</t>
   </si>
   <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
   </si>
   <si>
     <t>85,3%</t>
@@ -869,9 +944,6 @@
     <t>91,03%</t>
   </si>
   <si>
-    <t>78,2%</t>
-  </si>
-  <si>
     <t>69,71%</t>
   </si>
   <si>
@@ -887,31 +959,31 @@
     <t>86,01%</t>
   </si>
   <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
   </si>
   <si>
     <t>90,99%</t>
@@ -941,31 +1013,31 @@
     <t>88,62%</t>
   </si>
   <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
   </si>
   <si>
     <t>85,07%</t>
@@ -995,42 +1067,36 @@
     <t>81,03%</t>
   </si>
   <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
     <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
     <t>74,46%</t>
   </si>
   <si>
-    <t>60,41%</t>
-  </si>
-  <si>
     <t>85,5%</t>
   </si>
   <si>
@@ -1052,31 +1118,28 @@
     <t>77,61%</t>
   </si>
   <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
   </si>
   <si>
     <t>93,72%</t>
@@ -1103,28 +1166,31 @@
     <t>78,7%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
   </si>
   <si>
     <t>91,88%</t>
@@ -1154,31 +1220,31 @@
     <t>94,72%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
   </si>
   <si>
     <t>83,06%</t>
@@ -1208,31 +1274,28 @@
     <t>86,04%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
   </si>
   <si>
     <t>96,17%</t>
@@ -1259,28 +1322,31 @@
     <t>92,43%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
   </si>
   <si>
     <t>79,32%</t>
@@ -1310,31 +1376,31 @@
     <t>80,05%</t>
   </si>
   <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
   </si>
   <si>
     <t>86,9%</t>
@@ -1364,31 +1430,28 @@
     <t>84,24%</t>
   </si>
   <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
   </si>
   <si>
     <t>90,89%</t>
@@ -1415,28 +1478,31 @@
     <t>91,74%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
   </si>
   <si>
     <t>88,15%</t>
@@ -1466,472 +1532,427 @@
     <t>84,55%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
     <t>Población con dependencia funcional, al menos moderada, para actividades básicas de la vida diaria (Barthel) en 2023 (Tasa respuesta: 31,11%)</t>
   </si>
   <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
   </si>
   <si>
     <t>81,92%</t>
   </si>
   <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
   </si>
 </sst>
 </file>
@@ -2343,7 +2364,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD9E897-6245-4F3B-BA41-C9CBF87C5344}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9520E58B-9D2B-4E38-8A22-8A4BC02477D1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2461,10 +2482,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>31866</v>
+        <v>3520</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2476,10 +2497,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>36831</v>
+        <v>2400</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2491,10 +2512,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>68697</v>
+        <v>5920</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2512,10 +2533,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7">
-        <v>3520</v>
+        <v>31866</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2527,10 +2548,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="I5" s="7">
-        <v>2400</v>
+        <v>36831</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2542,10 +2563,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="N5" s="7">
-        <v>5920</v>
+        <v>68697</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2616,10 +2637,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>63654</v>
+        <v>3000</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2631,10 +2652,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>84292</v>
+        <v>13583</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2646,10 +2667,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>147947</v>
+        <v>16582</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2667,10 +2688,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="D8" s="7">
-        <v>3000</v>
+        <v>63654</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2682,10 +2703,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="I8" s="7">
-        <v>13583</v>
+        <v>84292</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2697,10 +2718,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>16</v>
+        <v>145</v>
       </c>
       <c r="N8" s="7">
-        <v>16582</v>
+        <v>147947</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2771,10 +2792,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>48006</v>
+        <v>2934</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2786,10 +2807,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>72428</v>
+        <v>11093</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2801,10 +2822,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>120435</v>
+        <v>14026</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2822,10 +2843,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D11" s="7">
-        <v>2934</v>
+        <v>48006</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2837,10 +2858,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="I11" s="7">
-        <v>11093</v>
+        <v>72428</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2852,10 +2873,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="N11" s="7">
-        <v>14026</v>
+        <v>120435</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2926,10 +2947,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>52542</v>
+        <v>2580</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2941,10 +2962,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>62654</v>
+        <v>11659</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2956,10 +2977,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>115197</v>
+        <v>14239</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2977,10 +2998,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D14" s="7">
-        <v>2580</v>
+        <v>52542</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2992,10 +3013,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="I14" s="7">
-        <v>11659</v>
+        <v>62654</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -3007,10 +3028,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="N14" s="7">
-        <v>14239</v>
+        <v>115197</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -3081,10 +3102,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>24198</v>
+        <v>5149</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -3096,10 +3117,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>32570</v>
+        <v>8676</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -3111,10 +3132,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="N16" s="7">
-        <v>56767</v>
+        <v>13826</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -3132,10 +3153,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7">
-        <v>5149</v>
+        <v>24198</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -3147,10 +3168,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I17" s="7">
-        <v>8676</v>
+        <v>32570</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -3162,10 +3183,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="N17" s="7">
-        <v>13826</v>
+        <v>56767</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -3236,10 +3257,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>43509</v>
+        <v>3687</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -3251,10 +3272,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="I19" s="7">
-        <v>60743</v>
+        <v>9566</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -3266,10 +3287,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="N19" s="7">
-        <v>104252</v>
+        <v>13254</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -3287,10 +3308,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="D20" s="7">
-        <v>3687</v>
+        <v>43509</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -3302,10 +3323,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="I20" s="7">
-        <v>9566</v>
+        <v>60743</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -3317,10 +3338,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="N20" s="7">
-        <v>13254</v>
+        <v>104252</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -3391,10 +3412,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>101563</v>
+        <v>4365</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>127</v>
@@ -3406,10 +3427,10 @@
         <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7">
-        <v>112271</v>
+        <v>4850</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>130</v>
@@ -3421,10 +3442,10 @@
         <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>215</v>
+        <v>10</v>
       </c>
       <c r="N22" s="7">
-        <v>213834</v>
+        <v>9215</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>133</v>
@@ -3442,10 +3463,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="D23" s="7">
-        <v>4365</v>
+        <v>101563</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>136</v>
@@ -3457,10 +3478,10 @@
         <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>112</v>
       </c>
       <c r="I23" s="7">
-        <v>4850</v>
+        <v>112271</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>139</v>
@@ -3472,10 +3493,10 @@
         <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>10</v>
+        <v>215</v>
       </c>
       <c r="N23" s="7">
-        <v>9215</v>
+        <v>213834</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>142</v>
@@ -3546,10 +3567,10 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="D25" s="7">
-        <v>97227</v>
+        <v>14666</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>146</v>
@@ -3561,10 +3582,10 @@
         <v>148</v>
       </c>
       <c r="H25" s="7">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="I25" s="7">
-        <v>123957</v>
+        <v>29268</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>149</v>
@@ -3576,10 +3597,10 @@
         <v>151</v>
       </c>
       <c r="M25" s="7">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="N25" s="7">
-        <v>221184</v>
+        <v>43934</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>152</v>
@@ -3597,10 +3618,10 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="D26" s="7">
-        <v>14666</v>
+        <v>97227</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>155</v>
@@ -3612,10 +3633,10 @@
         <v>157</v>
       </c>
       <c r="H26" s="7">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="I26" s="7">
-        <v>29268</v>
+        <v>123957</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>158</v>
@@ -3627,10 +3648,10 @@
         <v>160</v>
       </c>
       <c r="M26" s="7">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="N26" s="7">
-        <v>43934</v>
+        <v>221184</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>161</v>
@@ -3701,10 +3722,10 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>480</v>
+        <v>43</v>
       </c>
       <c r="D28" s="7">
-        <v>462565</v>
+        <v>39901</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>164</v>
@@ -3716,10 +3737,10 @@
         <v>166</v>
       </c>
       <c r="H28" s="7">
-        <v>578</v>
+        <v>83</v>
       </c>
       <c r="I28" s="7">
-        <v>585747</v>
+        <v>91095</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>167</v>
@@ -3731,10 +3752,10 @@
         <v>169</v>
       </c>
       <c r="M28" s="7">
-        <v>1058</v>
+        <v>126</v>
       </c>
       <c r="N28" s="7">
-        <v>1048312</v>
+        <v>130996</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>170</v>
@@ -3752,10 +3773,10 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>43</v>
+        <v>480</v>
       </c>
       <c r="D29" s="7">
-        <v>39901</v>
+        <v>462565</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>173</v>
@@ -3767,10 +3788,10 @@
         <v>175</v>
       </c>
       <c r="H29" s="7">
-        <v>83</v>
+        <v>578</v>
       </c>
       <c r="I29" s="7">
-        <v>91095</v>
+        <v>585747</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>176</v>
@@ -3782,10 +3803,10 @@
         <v>178</v>
       </c>
       <c r="M29" s="7">
-        <v>126</v>
+        <v>1058</v>
       </c>
       <c r="N29" s="7">
-        <v>130996</v>
+        <v>1048312</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>179</v>
@@ -3874,7 +3895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7DD785-8E1D-4E31-B3F5-12F3D8BEA786}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB04C66-560E-40F0-AE4F-8E1417A61D9E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3992,43 +4013,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6839</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="I4" s="7">
+        <v>22253</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="N4" s="7">
+        <v>29092</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,43 +4064,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="D5" s="7">
+        <v>37442</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="I5" s="7">
+        <v>26641</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>59</v>
+      </c>
+      <c r="N5" s="7">
+        <v>64083</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,43 +4115,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>40</v>
+      </c>
+      <c r="D6" s="7">
+        <v>44281</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="I6" s="7">
+        <v>48894</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="N6" s="7">
+        <v>93175</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,49 +4168,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="D7" s="7">
-        <v>66301</v>
+        <v>12902</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="H7" s="7">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="I7" s="7">
-        <v>67136</v>
+        <v>34957</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M7" s="7">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="N7" s="7">
-        <v>133437</v>
+        <v>47859</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,49 +4219,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D8" s="7">
-        <v>12902</v>
+        <v>66301</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="I8" s="7">
-        <v>34957</v>
+        <v>67136</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="M8" s="7">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="N8" s="7">
-        <v>47859</v>
+        <v>133437</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,49 +4323,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>46475</v>
+        <v>9267</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="H10" s="7">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>61778</v>
+        <v>18190</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N10" s="7">
-        <v>108253</v>
+        <v>27457</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,49 +4374,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D11" s="7">
-        <v>9267</v>
+        <v>46475</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="I11" s="7">
-        <v>18190</v>
+        <v>61778</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="M11" s="7">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="N11" s="7">
-        <v>27457</v>
+        <v>108253</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,49 +4478,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>92738</v>
+        <v>8731</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="H13" s="7">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>91931</v>
+        <v>20284</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="M13" s="7">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="N13" s="7">
-        <v>184670</v>
+        <v>29015</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,49 +4529,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D14" s="7">
-        <v>15570</v>
+        <v>55297</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="H14" s="7">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="I14" s="7">
-        <v>42537</v>
+        <v>65290</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="M14" s="7">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="N14" s="7">
-        <v>58107</v>
+        <v>120587</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,10 +4580,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D15" s="7">
-        <v>108308</v>
+        <v>64028</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4556,10 +4595,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="I15" s="7">
-        <v>134468</v>
+        <v>85574</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4571,10 +4610,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="N15" s="7">
-        <v>242777</v>
+        <v>149602</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4594,49 +4633,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>24907</v>
+        <v>6705</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I16" s="7">
-        <v>35260</v>
+        <v>14595</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>168</v>
+        <v>260</v>
       </c>
       <c r="M16" s="7">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="N16" s="7">
-        <v>60167</v>
+        <v>21300</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,49 +4684,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7">
-        <v>6705</v>
+        <v>24907</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="H17" s="7">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I17" s="7">
-        <v>14595</v>
+        <v>35260</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>177</v>
       </c>
       <c r="M17" s="7">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="N17" s="7">
-        <v>21300</v>
+        <v>60167</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,49 +4788,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D19" s="7">
-        <v>40053</v>
+        <v>11703</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="H19" s="7">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="I19" s="7">
-        <v>51104</v>
+        <v>19108</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="M19" s="7">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="N19" s="7">
-        <v>91157</v>
+        <v>30811</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,49 +4839,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D20" s="7">
-        <v>11703</v>
+        <v>40053</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="H20" s="7">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="I20" s="7">
-        <v>19108</v>
+        <v>51104</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="M20" s="7">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="N20" s="7">
-        <v>30811</v>
+        <v>91157</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,49 +4943,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="D22" s="7">
-        <v>95755</v>
+        <v>16508</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="H22" s="7">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="I22" s="7">
-        <v>111011</v>
+        <v>30951</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>191</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="M22" s="7">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="N22" s="7">
-        <v>206766</v>
+        <v>47460</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,49 +4994,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D23" s="7">
-        <v>16508</v>
+        <v>95755</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="H23" s="7">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="I23" s="7">
-        <v>30951</v>
+        <v>111011</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>201</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="M23" s="7">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="N23" s="7">
-        <v>47460</v>
+        <v>206766</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,49 +5098,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="D25" s="7">
-        <v>109872</v>
+        <v>10880</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="H25" s="7">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="I25" s="7">
-        <v>132305</v>
+        <v>32112</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="M25" s="7">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="N25" s="7">
-        <v>242177</v>
+        <v>42992</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,49 +5149,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D26" s="7">
-        <v>10880</v>
+        <v>109872</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="H26" s="7">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="I26" s="7">
-        <v>32112</v>
+        <v>132305</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="M26" s="7">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="N26" s="7">
-        <v>42992</v>
+        <v>242177</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,49 +5253,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>432</v>
+        <v>72</v>
       </c>
       <c r="D28" s="7">
-        <v>476102</v>
+        <v>83535</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="H28" s="7">
-        <v>518</v>
+        <v>176</v>
       </c>
       <c r="I28" s="7">
-        <v>550525</v>
+        <v>192450</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="M28" s="7">
-        <v>950</v>
+        <v>248</v>
       </c>
       <c r="N28" s="7">
-        <v>1026627</v>
+        <v>275985</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,49 +5304,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>72</v>
+        <v>432</v>
       </c>
       <c r="D29" s="7">
-        <v>83535</v>
+        <v>476102</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="H29" s="7">
-        <v>176</v>
+        <v>518</v>
       </c>
       <c r="I29" s="7">
-        <v>192450</v>
+        <v>550525</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="M29" s="7">
-        <v>248</v>
+        <v>950</v>
       </c>
       <c r="N29" s="7">
-        <v>275985</v>
+        <v>1026627</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,7 +5426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7572F3DA-8660-4D6B-A4AD-3ED7C379F70D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1589DFEA-9F62-450B-A767-168C1E9437F7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5404,7 +5443,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5505,49 +5544,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>28964</v>
+        <v>9932</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>330</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>31384</v>
+        <v>18007</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="M4" s="7">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="N4" s="7">
-        <v>60348</v>
+        <v>27939</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,49 +5595,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>9932</v>
+        <v>28964</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>189</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>18007</v>
+        <v>31384</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="N5" s="7">
-        <v>27939</v>
+        <v>60348</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,49 +5699,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>81810</v>
+        <v>5485</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="H7" s="7">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="I7" s="7">
-        <v>89740</v>
+        <v>25488</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="M7" s="7">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="N7" s="7">
-        <v>171550</v>
+        <v>30973</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>353</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>57</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,49 +5750,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="D8" s="7">
-        <v>5485</v>
+        <v>81810</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="H8" s="7">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="I8" s="7">
-        <v>25488</v>
+        <v>89740</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="M8" s="7">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="N8" s="7">
-        <v>30973</v>
+        <v>171550</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,49 +5854,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>58389</v>
+        <v>5157</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="H10" s="7">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>71720</v>
+        <v>8177</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="M10" s="7">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>130109</v>
+        <v>13334</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,49 +5905,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7">
-        <v>5157</v>
+        <v>58389</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>63</v>
       </c>
       <c r="I11" s="7">
-        <v>8177</v>
+        <v>71720</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="M11" s="7">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="N11" s="7">
-        <v>13334</v>
+        <v>130109</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,49 +6009,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>53747</v>
+        <v>10965</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>71186</v>
+        <v>20388</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="M13" s="7">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="N13" s="7">
-        <v>124932</v>
+        <v>31353</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,49 +6060,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7">
-        <v>10965</v>
+        <v>53747</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="I14" s="7">
-        <v>20388</v>
+        <v>71186</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="N14" s="7">
-        <v>31353</v>
+        <v>124932</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,49 +6164,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>40467</v>
+        <v>1613</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>399</v>
+        <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>16</v>
+        <v>412</v>
       </c>
       <c r="H16" s="7">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>39327</v>
+        <v>11205</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="M16" s="7">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>79794</v>
+        <v>12818</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,49 +6215,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D17" s="7">
-        <v>1613</v>
+        <v>40467</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>420</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>26</v>
       </c>
       <c r="H17" s="7">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="I17" s="7">
-        <v>11205</v>
+        <v>39327</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="M17" s="7">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="N17" s="7">
-        <v>12818</v>
+        <v>79794</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,49 +6319,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>38427</v>
+        <v>10019</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="H19" s="7">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="I19" s="7">
-        <v>45283</v>
+        <v>22105</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="M19" s="7">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="N19" s="7">
-        <v>83709</v>
+        <v>32125</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,49 +6370,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D20" s="7">
-        <v>10019</v>
+        <v>38427</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="H20" s="7">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I20" s="7">
-        <v>22105</v>
+        <v>45283</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="M20" s="7">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="N20" s="7">
-        <v>32125</v>
+        <v>83709</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,49 +6474,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="D22" s="7">
-        <v>97487</v>
+        <v>14698</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="H22" s="7">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="I22" s="7">
-        <v>107873</v>
+        <v>39752</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="M22" s="7">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="N22" s="7">
-        <v>205359</v>
+        <v>54451</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,49 +6525,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>15</v>
+        <v>94</v>
       </c>
       <c r="D23" s="7">
-        <v>14698</v>
+        <v>97487</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="H23" s="7">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="I23" s="7">
-        <v>39752</v>
+        <v>107873</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="M23" s="7">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="N23" s="7">
-        <v>54451</v>
+        <v>205359</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,49 +6629,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="D25" s="7">
-        <v>121939</v>
+        <v>12229</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="H25" s="7">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="I25" s="7">
-        <v>152670</v>
+        <v>23627</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="M25" s="7">
-        <v>253</v>
+        <v>30</v>
       </c>
       <c r="N25" s="7">
-        <v>274609</v>
+        <v>35856</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,49 +6680,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="D26" s="7">
-        <v>12229</v>
+        <v>121939</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="H26" s="7">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="I26" s="7">
-        <v>23627</v>
+        <v>152670</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>443</v>
+        <v>475</v>
       </c>
       <c r="M26" s="7">
-        <v>30</v>
+        <v>253</v>
       </c>
       <c r="N26" s="7">
-        <v>35856</v>
+        <v>274609</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,49 +6784,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>550</v>
+        <v>77</v>
       </c>
       <c r="D28" s="7">
-        <v>521230</v>
+        <v>70098</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="H28" s="7">
-        <v>522</v>
+        <v>133</v>
       </c>
       <c r="I28" s="7">
-        <v>609182</v>
+        <v>168749</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="M28" s="7">
-        <v>1072</v>
+        <v>210</v>
       </c>
       <c r="N28" s="7">
-        <v>1130412</v>
+        <v>238847</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,49 +6835,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>77</v>
+        <v>550</v>
       </c>
       <c r="D29" s="7">
-        <v>70098</v>
+        <v>521230</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="H29" s="7">
-        <v>133</v>
+        <v>522</v>
       </c>
       <c r="I29" s="7">
-        <v>168749</v>
+        <v>609182</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="M29" s="7">
-        <v>210</v>
+        <v>1072</v>
       </c>
       <c r="N29" s="7">
-        <v>238847</v>
+        <v>1130412</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,7 +6957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73D39C18-2D79-4B81-BA84-2BE1B8819D54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8EA9B5-DF41-4370-988F-3FAEDAC799B9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6935,7 +6974,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7036,49 +7075,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>48863</v>
+        <v>3271</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="H4" s="7">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>53895</v>
+        <v>8352</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="M4" s="7">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="N4" s="7">
-        <v>102759</v>
+        <v>11623</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>492</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7087,49 +7126,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="D5" s="7">
-        <v>3057</v>
+        <v>52630</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="I5" s="7">
-        <v>8324</v>
+        <v>55057</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="M5" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="N5" s="7">
-        <v>11380</v>
+        <v>107687</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>502</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7141,7 +7180,7 @@
         <v>83</v>
       </c>
       <c r="D6" s="7">
-        <v>51920</v>
+        <v>55901</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7156,7 +7195,7 @@
         <v>132</v>
       </c>
       <c r="I6" s="7">
-        <v>62219</v>
+        <v>63409</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7171,7 +7210,7 @@
         <v>215</v>
       </c>
       <c r="N6" s="7">
-        <v>114139</v>
+        <v>119310</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7191,49 +7230,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>75931</v>
+        <v>9597</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="H7" s="7">
-        <v>162</v>
+        <v>60</v>
       </c>
       <c r="I7" s="7">
-        <v>101383</v>
+        <v>35305</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="M7" s="7">
-        <v>246</v>
+        <v>71</v>
       </c>
       <c r="N7" s="7">
-        <v>177313</v>
+        <v>44902</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>153</v>
+        <v>520</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7242,49 +7281,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="D8" s="7">
-        <v>10383</v>
+        <v>71112</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="H8" s="7">
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="I8" s="7">
-        <v>39324</v>
+        <v>93093</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="M8" s="7">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="N8" s="7">
-        <v>49708</v>
+        <v>164205</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>163</v>
+        <v>529</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7296,7 +7335,7 @@
         <v>95</v>
       </c>
       <c r="D9" s="7">
-        <v>86314</v>
+        <v>80709</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7311,7 +7350,7 @@
         <v>222</v>
       </c>
       <c r="I9" s="7">
-        <v>140707</v>
+        <v>128398</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7326,7 +7365,7 @@
         <v>317</v>
       </c>
       <c r="N9" s="7">
-        <v>227021</v>
+        <v>209107</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7346,49 +7385,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>58003</v>
+        <v>18375</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="H10" s="7">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="I10" s="7">
-        <v>67979</v>
+        <v>22472</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>523</v>
+        <v>399</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>489</v>
+        <v>536</v>
       </c>
       <c r="M10" s="7">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="N10" s="7">
-        <v>125982</v>
+        <v>40847</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>439</v>
+        <v>537</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7397,49 +7436,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="D11" s="7">
-        <v>19598</v>
+        <v>55115</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="H11" s="7">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="I11" s="7">
-        <v>24682</v>
+        <v>62964</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>499</v>
+        <v>544</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>530</v>
+        <v>408</v>
       </c>
       <c r="M11" s="7">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="N11" s="7">
-        <v>44280</v>
+        <v>118079</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>449</v>
+        <v>545</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7451,7 +7490,7 @@
         <v>122</v>
       </c>
       <c r="D12" s="7">
-        <v>77601</v>
+        <v>73490</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7466,7 +7505,7 @@
         <v>166</v>
       </c>
       <c r="I12" s="7">
-        <v>92661</v>
+        <v>85436</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7481,7 +7520,7 @@
         <v>288</v>
       </c>
       <c r="N12" s="7">
-        <v>170262</v>
+        <v>158926</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7501,49 +7540,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>71332</v>
+        <v>6992</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>533</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>451</v>
+        <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="H13" s="7">
-        <v>205</v>
+        <v>51</v>
       </c>
       <c r="I13" s="7">
-        <v>88021</v>
+        <v>20887</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>535</v>
+        <v>503</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>550</v>
       </c>
       <c r="M13" s="7">
-        <v>312</v>
+        <v>62</v>
       </c>
       <c r="N13" s="7">
-        <v>159353</v>
+        <v>27879</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>552</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,49 +7591,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="D14" s="7">
-        <v>7473</v>
+        <v>67676</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>539</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>460</v>
+        <v>41</v>
       </c>
       <c r="H14" s="7">
-        <v>51</v>
+        <v>205</v>
       </c>
       <c r="I14" s="7">
-        <v>22434</v>
+        <v>82749</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>541</v>
+        <v>510</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>555</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="M14" s="7">
-        <v>62</v>
+        <v>312</v>
       </c>
       <c r="N14" s="7">
-        <v>29907</v>
+        <v>150424</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7606,7 +7645,7 @@
         <v>118</v>
       </c>
       <c r="D15" s="7">
-        <v>78805</v>
+        <v>74668</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7621,7 +7660,7 @@
         <v>256</v>
       </c>
       <c r="I15" s="7">
-        <v>110455</v>
+        <v>103636</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7636,7 +7675,7 @@
         <v>374</v>
       </c>
       <c r="N15" s="7">
-        <v>189260</v>
+        <v>178303</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7656,49 +7695,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>31105</v>
+        <v>5999</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="H16" s="7">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="I16" s="7">
-        <v>49585</v>
+        <v>13465</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="M16" s="7">
-        <v>186</v>
+        <v>47</v>
       </c>
       <c r="N16" s="7">
-        <v>80689</v>
+        <v>19464</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>551</v>
+        <v>451</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>552</v>
+        <v>53</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7707,49 +7746,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="D17" s="7">
-        <v>6659</v>
+        <v>28294</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="H17" s="7">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="I17" s="7">
-        <v>15133</v>
+        <v>45083</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="M17" s="7">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="N17" s="7">
-        <v>21793</v>
+        <v>73377</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>560</v>
+        <v>460</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>562</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7761,7 +7800,7 @@
         <v>70</v>
       </c>
       <c r="D18" s="7">
-        <v>37764</v>
+        <v>34293</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7776,7 +7815,7 @@
         <v>163</v>
       </c>
       <c r="I18" s="7">
-        <v>64718</v>
+        <v>58548</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7791,7 +7830,7 @@
         <v>233</v>
       </c>
       <c r="N18" s="7">
-        <v>102482</v>
+        <v>92841</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7811,49 +7850,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7">
-        <v>48864</v>
+        <v>13610</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>563</v>
+        <v>37</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="H19" s="7">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="I19" s="7">
-        <v>46996</v>
+        <v>21373</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="M19" s="7">
-        <v>217</v>
+        <v>95</v>
       </c>
       <c r="N19" s="7">
-        <v>95861</v>
+        <v>34983</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,49 +7901,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="D20" s="7">
-        <v>14319</v>
+        <v>46651</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>572</v>
+        <v>45</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="H20" s="7">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="I20" s="7">
-        <v>22857</v>
+        <v>43885</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="M20" s="7">
-        <v>95</v>
+        <v>217</v>
       </c>
       <c r="N20" s="7">
-        <v>37176</v>
+        <v>90536</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7916,7 +7955,7 @@
         <v>135</v>
       </c>
       <c r="D21" s="7">
-        <v>63183</v>
+        <v>60261</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7931,7 +7970,7 @@
         <v>177</v>
       </c>
       <c r="I21" s="7">
-        <v>69853</v>
+        <v>65258</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7946,7 +7985,7 @@
         <v>312</v>
       </c>
       <c r="N21" s="7">
-        <v>133037</v>
+        <v>125519</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7966,49 +8005,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="D22" s="7">
-        <v>114437</v>
+        <v>14496</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>503</v>
+        <v>590</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="H22" s="7">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="I22" s="7">
-        <v>221170</v>
+        <v>32259</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="M22" s="7">
-        <v>331</v>
+        <v>75</v>
       </c>
       <c r="N22" s="7">
-        <v>335606</v>
+        <v>46755</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>588</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8017,49 +8056,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>18</v>
+        <v>149</v>
       </c>
       <c r="D23" s="7">
-        <v>15643</v>
+        <v>108027</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>511</v>
+        <v>598</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="H23" s="7">
-        <v>57</v>
+        <v>182</v>
       </c>
       <c r="I23" s="7">
-        <v>35844</v>
+        <v>305247</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="M23" s="7">
-        <v>75</v>
+        <v>331</v>
       </c>
       <c r="N23" s="7">
-        <v>51488</v>
+        <v>413274</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>595</v>
+        <v>495</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8071,7 +8110,7 @@
         <v>167</v>
       </c>
       <c r="D24" s="7">
-        <v>130080</v>
+        <v>122523</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8086,7 +8125,7 @@
         <v>239</v>
       </c>
       <c r="I24" s="7">
-        <v>257014</v>
+        <v>337506</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8101,7 +8140,7 @@
         <v>406</v>
       </c>
       <c r="N24" s="7">
-        <v>387094</v>
+        <v>460029</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8121,49 +8160,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="D25" s="7">
-        <v>154119</v>
+        <v>12771</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>597</v>
+        <v>467</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="H25" s="7">
-        <v>281</v>
+        <v>60</v>
       </c>
       <c r="I25" s="7">
-        <v>179556</v>
+        <v>33936</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="M25" s="7">
-        <v>494</v>
+        <v>81</v>
       </c>
       <c r="N25" s="7">
-        <v>333675</v>
+        <v>46707</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8172,49 +8211,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="D26" s="7">
-        <v>15115</v>
+        <v>133704</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>606</v>
+        <v>475</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="H26" s="7">
-        <v>60</v>
+        <v>281</v>
       </c>
       <c r="I26" s="7">
-        <v>42309</v>
+        <v>151683</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="M26" s="7">
-        <v>81</v>
+        <v>494</v>
       </c>
       <c r="N26" s="7">
-        <v>57424</v>
+        <v>285387</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8226,7 +8265,7 @@
         <v>234</v>
       </c>
       <c r="D27" s="7">
-        <v>169234</v>
+        <v>146475</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8241,7 +8280,7 @@
         <v>341</v>
       </c>
       <c r="I27" s="7">
-        <v>221865</v>
+        <v>185619</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8256,7 +8295,7 @@
         <v>575</v>
       </c>
       <c r="N27" s="7">
-        <v>391099</v>
+        <v>332094</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8276,49 +8315,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>884</v>
+        <v>140</v>
       </c>
       <c r="D28" s="7">
-        <v>602653</v>
+        <v>85110</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>617</v>
+        <v>365</v>
       </c>
       <c r="H28" s="7">
-        <v>1310</v>
+        <v>386</v>
       </c>
       <c r="I28" s="7">
-        <v>808585</v>
+        <v>188049</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="M28" s="7">
-        <v>2194</v>
+        <v>526</v>
       </c>
       <c r="N28" s="7">
-        <v>1411238</v>
+        <v>273160</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>351</v>
+        <v>629</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8327,49 +8366,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>140</v>
+        <v>884</v>
       </c>
       <c r="D29" s="7">
-        <v>92247</v>
+        <v>563210</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>624</v>
+        <v>373</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="H29" s="7">
-        <v>386</v>
+        <v>1310</v>
       </c>
       <c r="I29" s="7">
-        <v>210909</v>
+        <v>839761</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="M29" s="7">
-        <v>526</v>
+        <v>2194</v>
       </c>
       <c r="N29" s="7">
-        <v>303156</v>
+        <v>1402970</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>358</v>
+        <v>636</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>630</v>
+        <v>637</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8381,7 +8420,7 @@
         <v>1024</v>
       </c>
       <c r="D30" s="7">
-        <v>694900</v>
+        <v>648320</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8396,7 +8435,7 @@
         <v>1696</v>
       </c>
       <c r="I30" s="7">
-        <v>1019494</v>
+        <v>1027810</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8411,7 +8450,7 @@
         <v>2720</v>
       </c>
       <c r="N30" s="7">
-        <v>1714394</v>
+        <v>1676130</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
